--- a/0_0_Data/2_Processed_Data/3_gdp_component_forecast/ifo_qoq_forecasts_CONSTR.xlsx
+++ b/0_0_Data/2_Processed_Data/3_gdp_component_forecast/ifo_qoq_forecasts_CONSTR.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbe04e23282f0d1/Desktop/ifo/Konjunkturprognose Evaluierung/ifo Forecast Evaluation Workfolder/0_0_Data/2_Processed_Data/3_gdp_component_forecast/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_9E06452810B8923E10FE31D2F87AE3804802380B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E3BF150-1173-494E-8AC2-13933CD5A4CF}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -22,11 +28,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,17 +94,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -136,7 +150,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -170,6 +184,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -204,9 +219,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -379,14 +395,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +566,7 @@
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>39401</v>
       </c>
@@ -555,7 +574,7 @@
         <v>-0.9202615158156533</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>39493</v>
       </c>
@@ -563,7 +582,7 @@
         <v>0.8502338137106733</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>39583</v>
       </c>
@@ -571,74 +590,74 @@
         <v>0.85</v>
       </c>
       <c r="C4">
-        <v>-4.584240009800993</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53">
+        <v>-4.5842400098009932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>39675</v>
       </c>
       <c r="B5">
-        <v>0.8070526521480588</v>
+        <v>0.80705265214805877</v>
       </c>
       <c r="C5">
-        <v>0.1885278214198252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53">
+        <v>0.18852782141982519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>39767</v>
       </c>
       <c r="B6">
-        <v>0.8077926562006326</v>
+        <v>0.80779265620063256</v>
       </c>
       <c r="C6">
-        <v>0.6772526392290388</v>
+        <v>0.67725263922903878</v>
       </c>
       <c r="D6">
-        <v>-0.0225265157453407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:53">
+        <v>-2.2526515745340699E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>39859</v>
       </c>
       <c r="C7">
-        <v>0.7444112022064786</v>
+        <v>0.74441120220647861</v>
       </c>
       <c r="D7">
         <v>-0.5310904011974884</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>39948</v>
       </c>
       <c r="C8">
-        <v>0.8555642925598477</v>
+        <v>0.85556429255984767</v>
       </c>
       <c r="D8">
-        <v>-0.2077193692562389</v>
+        <v>-0.20771936925623891</v>
       </c>
       <c r="E8">
-        <v>2.326978350057175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:53">
+        <v>2.3269783500571748</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>40040</v>
       </c>
       <c r="C9">
-        <v>0.7667663204885145</v>
+        <v>0.76676632048851445</v>
       </c>
       <c r="D9">
-        <v>0.0248515810713883</v>
+        <v>2.4851581071388299E-2</v>
       </c>
       <c r="E9">
         <v>-0.1754120007267943</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>40132</v>
       </c>
@@ -646,223 +665,223 @@
         <v>0.7226490915834205</v>
       </c>
       <c r="D10">
-        <v>0.1689339804100456</v>
+        <v>0.16893398041004559</v>
       </c>
       <c r="E10">
-        <v>-0.5187716927080714</v>
+        <v>-0.51877169270807144</v>
       </c>
       <c r="F10">
         <v>-0.2446904712575417</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>40224</v>
       </c>
       <c r="E11">
-        <v>-0.02547741087713007</v>
+        <v>-2.5477410877130069E-2</v>
       </c>
       <c r="F11">
-        <v>-0.4827621923091812</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53">
+        <v>-0.48276219230918122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>40313</v>
       </c>
       <c r="E12">
-        <v>0.4311871488147432</v>
+        <v>0.43118714881474318</v>
       </c>
       <c r="F12">
-        <v>-0.2053068750136759</v>
+        <v>-0.20530687501367589</v>
       </c>
       <c r="G12">
-        <v>4.256325692699008</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53">
+        <v>4.2563256926990078</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>40405</v>
       </c>
       <c r="E13">
-        <v>0.5190127646174574</v>
+        <v>0.51901276461745738</v>
       </c>
       <c r="F13">
-        <v>-0.004099370678488867</v>
+        <v>-4.0993706784888673E-3</v>
       </c>
       <c r="G13">
-        <v>1.406422522535905</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53">
+        <v>1.4064225225359051</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>40497</v>
       </c>
       <c r="E14">
-        <v>0.5196249850277752</v>
+        <v>0.51962498502777521</v>
       </c>
       <c r="F14">
-        <v>0.05383383999937053</v>
+        <v>5.3833839999370532E-2</v>
       </c>
       <c r="G14">
-        <v>1.381725639047744</v>
+        <v>1.3817256390477439</v>
       </c>
       <c r="H14">
-        <v>0.2772422611632095</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53">
+        <v>0.27724226116320949</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>40589</v>
       </c>
       <c r="G15">
-        <v>-0.1965369824803531</v>
+        <v>-0.19653698248035309</v>
       </c>
       <c r="H15">
-        <v>0.09777039581079805</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53">
+        <v>9.777039581079805E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>40678</v>
       </c>
       <c r="G16">
-        <v>-0.7922079768977568</v>
+        <v>-0.79220797689775679</v>
       </c>
       <c r="H16">
-        <v>0.1269550594617357</v>
+        <v>0.12695505946173569</v>
       </c>
       <c r="I16">
-        <v>-3.199651172943476</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>-3.1996511729434758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>40770</v>
       </c>
       <c r="G17">
-        <v>-1.062265519602065</v>
+        <v>-1.0622655196020649</v>
       </c>
       <c r="H17">
-        <v>0.6717955667865425</v>
+        <v>0.67179556678654251</v>
       </c>
       <c r="I17">
         <v>0.259771897266873</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>40862</v>
       </c>
       <c r="G18">
-        <v>-0.911621726278625</v>
+        <v>-0.91162172627862503</v>
       </c>
       <c r="H18">
-        <v>0.5720143465663483</v>
+        <v>0.57201434656634831</v>
       </c>
       <c r="I18">
-        <v>0.8459990880921993</v>
+        <v>0.84599908809219926</v>
       </c>
       <c r="J18">
-        <v>0.9551364114797707</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.95513641147977069</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>40954</v>
       </c>
       <c r="I19">
-        <v>1.304682315704213</v>
+        <v>1.3046823157042129</v>
       </c>
       <c r="J19">
-        <v>0.5541626057207196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.55416260572071963</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>41044</v>
       </c>
       <c r="I20">
-        <v>1.147881733759064</v>
+        <v>1.1478817337590641</v>
       </c>
       <c r="J20">
-        <v>0.8126901904997936</v>
+        <v>0.81269019049979363</v>
       </c>
       <c r="K20">
         <v>3.239439136816884</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>41136</v>
       </c>
       <c r="I21">
-        <v>0.7581248089406643</v>
+        <v>0.75812480894066425</v>
       </c>
       <c r="J21">
-        <v>0.9859221568927694</v>
+        <v>0.98592215689276941</v>
       </c>
       <c r="K21">
-        <v>2.150628251154643</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>2.1506282511546431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>41228</v>
       </c>
       <c r="I22">
-        <v>0.6418510343227553</v>
+        <v>0.64185103432275525</v>
       </c>
       <c r="J22">
         <v>1.029222621605385</v>
       </c>
       <c r="K22">
-        <v>0.6417484130552253</v>
+        <v>0.64174841305522534</v>
       </c>
       <c r="L22">
-        <v>0.7572494446238807</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.75724944462388066</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>41320</v>
       </c>
       <c r="K23">
-        <v>0.472882426562407</v>
+        <v>0.47288242656240698</v>
       </c>
       <c r="L23">
-        <v>0.5307863054724322</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.53078630547243222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>41409</v>
       </c>
       <c r="K24">
-        <v>0.5424560602610171</v>
+        <v>0.54245606026101711</v>
       </c>
       <c r="L24">
         <v>0.558169387289837</v>
       </c>
       <c r="M24">
-        <v>3.614932423215066</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>3.6149324232150661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>41501</v>
       </c>
       <c r="K25">
-        <v>0.5656255759392366</v>
+        <v>0.56562557593923657</v>
       </c>
       <c r="L25">
-        <v>0.5581754798044614</v>
+        <v>0.55817547980446136</v>
       </c>
       <c r="M25">
-        <v>3.220914903403639</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>3.2209149034036391</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>41593</v>
       </c>
@@ -870,111 +889,111 @@
         <v>0.5657163696486549</v>
       </c>
       <c r="L26">
-        <v>0.5584310866045001</v>
+        <v>0.55843108660450014</v>
       </c>
       <c r="M26">
-        <v>1.171454252931213</v>
+        <v>1.1714542529312131</v>
       </c>
       <c r="N26">
-        <v>0.5259948390972795</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>0.52599483909727951</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>41685</v>
       </c>
       <c r="M27">
-        <v>0.3891881756981519</v>
+        <v>0.38918817569815189</v>
       </c>
       <c r="N27">
-        <v>0.6824355029599474</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>0.68243550295994737</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>41774</v>
       </c>
       <c r="M28">
-        <v>0.5711818380382852</v>
+        <v>0.57118183803828515</v>
       </c>
       <c r="N28">
-        <v>0.6788814428255137</v>
+        <v>0.67888144282551366</v>
       </c>
       <c r="O28">
-        <v>-2.447111617029435</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>-2.4471116170294351</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>41866</v>
       </c>
       <c r="M29">
-        <v>0.6286173499290442</v>
+        <v>0.62861734992904417</v>
       </c>
       <c r="N29">
-        <v>0.7225636420433119</v>
+        <v>0.72256364204331192</v>
       </c>
       <c r="O29">
-        <v>0.5166694479245422</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>0.51666944792454217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>41958</v>
       </c>
       <c r="M30">
-        <v>0.6288359190683224</v>
+        <v>0.62883591906832237</v>
       </c>
       <c r="N30">
-        <v>0.7233856008953126</v>
+        <v>0.72338560089531256</v>
       </c>
       <c r="O30">
-        <v>0.6144410025243445</v>
+        <v>0.61444100252434453</v>
       </c>
       <c r="P30">
-        <v>0.02799823082109754</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>2.799823082109754E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>42050</v>
       </c>
       <c r="O31">
-        <v>0.8862767946391017</v>
+        <v>0.88627679463910169</v>
       </c>
       <c r="P31">
-        <v>0.7434723928571856</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>0.74347239285718558</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>42139</v>
       </c>
       <c r="O32">
-        <v>0.9167686939480291</v>
+        <v>0.91676869394802907</v>
       </c>
       <c r="P32">
         <v>0.8036493619276257</v>
       </c>
       <c r="Q32">
-        <v>0.05893999533155636</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28">
+        <v>5.8939995331556361E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>42231</v>
       </c>
       <c r="O33">
-        <v>0.9600127617940331</v>
+        <v>0.96001276179403305</v>
       </c>
       <c r="P33">
-        <v>0.8668337571527758</v>
+        <v>0.86683375715277577</v>
       </c>
       <c r="Q33">
-        <v>0.08345847455619548</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28">
+        <v>8.3458474556195483E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>42323</v>
       </c>
@@ -982,16 +1001,16 @@
         <v>0.9600671730357675</v>
       </c>
       <c r="P34">
-        <v>0.9249338030575416</v>
+        <v>0.92493380305754158</v>
       </c>
       <c r="Q34">
         <v>0.2478381909510432</v>
       </c>
       <c r="R34">
-        <v>0.8395897642787418</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28">
+        <v>0.83958976427874177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>42415</v>
       </c>
@@ -1002,52 +1021,52 @@
         <v>0.6563473872696477</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>42505</v>
       </c>
       <c r="Q36">
-        <v>0.5064407828060808</v>
+        <v>0.50644078280608085</v>
       </c>
       <c r="R36">
-        <v>0.7128866015186759</v>
+        <v>0.71288660151867589</v>
       </c>
       <c r="S36">
-        <v>-0.6309168039368558</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28">
+        <v>-0.63091680393685579</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>42597</v>
       </c>
       <c r="Q37">
-        <v>0.6175810576904581</v>
+        <v>0.61758105769045812</v>
       </c>
       <c r="R37">
-        <v>0.7438026122411827</v>
+        <v>0.74380261224118271</v>
       </c>
       <c r="S37">
         <v>0.6494255158807789</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>42689</v>
       </c>
       <c r="Q38">
-        <v>0.6208163030755998</v>
+        <v>0.62081630307559976</v>
       </c>
       <c r="R38">
-        <v>0.5516421641742255</v>
+        <v>0.55164216417422551</v>
       </c>
       <c r="S38">
-        <v>0.7724317667485678</v>
+        <v>0.77243176674856784</v>
       </c>
       <c r="T38">
-        <v>1.43264353805759</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28">
+        <v>1.4326435380575899</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>42781</v>
       </c>
@@ -1055,104 +1074,104 @@
         <v>0.6273934612667631</v>
       </c>
       <c r="S39">
-        <v>0.7692710224212647</v>
+        <v>0.76927102242126466</v>
       </c>
       <c r="T39">
         <v>0.7380307906906296</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>42870</v>
       </c>
       <c r="R40">
-        <v>0.628129929716664</v>
+        <v>0.62812992971666404</v>
       </c>
       <c r="S40">
-        <v>0.7695612873212667</v>
+        <v>0.76956128732126672</v>
       </c>
       <c r="T40">
-        <v>0.7376561085117714</v>
+        <v>0.73765610851177144</v>
       </c>
       <c r="U40">
-        <v>0.93278395318805</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28">
+        <v>0.93278395318804996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>42962</v>
       </c>
       <c r="R41">
-        <v>0.6674945835057713</v>
+        <v>0.66749458350577129</v>
       </c>
       <c r="S41">
-        <v>0.781901784070385</v>
+        <v>0.78190178407038502</v>
       </c>
       <c r="T41">
-        <v>0.7752207669770286</v>
+        <v>0.77522076697702857</v>
       </c>
       <c r="U41">
-        <v>0.737240821947637</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28">
+        <v>0.73724082194763696</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>43054</v>
       </c>
       <c r="R42">
-        <v>0.6678010111104555</v>
+        <v>0.66780101111045553</v>
       </c>
       <c r="S42">
-        <v>0.7821045013343593</v>
+        <v>0.78210450133435927</v>
       </c>
       <c r="T42">
-        <v>0.7755165880529091</v>
+        <v>0.77551658805290913</v>
       </c>
       <c r="U42">
-        <v>0.7662744199943035</v>
+        <v>0.76627441999430346</v>
       </c>
       <c r="V42">
         <v>1.113688352880345</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>43146</v>
       </c>
       <c r="T43">
-        <v>0.6448074495218208</v>
+        <v>0.64480744952182079</v>
       </c>
       <c r="U43">
-        <v>0.7712878137015906</v>
+        <v>0.77128781370159061</v>
       </c>
       <c r="V43">
-        <v>0.9080681459062703</v>
+        <v>0.90806814590627027</v>
       </c>
       <c r="W43">
-        <v>0.9738389087563917</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28">
+        <v>0.97383890875639167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>43235</v>
       </c>
       <c r="T44">
-        <v>0.6451379409190565</v>
+        <v>0.64513794091905652</v>
       </c>
       <c r="U44">
-        <v>0.7779498483449885</v>
+        <v>0.77794984834498848</v>
       </c>
       <c r="V44">
-        <v>0.7566849908938593</v>
+        <v>0.75668499089385932</v>
       </c>
       <c r="W44">
-        <v>0.8582147780612672</v>
+        <v>0.85821477806126722</v>
       </c>
       <c r="X44">
-        <v>1.449096432937026</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28">
+        <v>1.4490964329370259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>43327</v>
       </c>
@@ -1160,108 +1179,108 @@
         <v>0.6571457042417137</v>
       </c>
       <c r="U45">
-        <v>0.6730414478020066</v>
+        <v>0.67304144780200659</v>
       </c>
       <c r="V45">
-        <v>0.7422540712829004</v>
+        <v>0.74225407128290044</v>
       </c>
       <c r="W45">
-        <v>0.8344196445528382</v>
+        <v>0.83441964455283824</v>
       </c>
       <c r="X45">
-        <v>0.4818206891472414</v>
+        <v>0.48182068914724141</v>
       </c>
       <c r="Y45">
-        <v>0.7453671605556593</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28">
+        <v>0.74536716055565932</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>43419</v>
       </c>
       <c r="T46">
-        <v>0.6575286109465424</v>
+        <v>0.65752861094654236</v>
       </c>
       <c r="U46">
-        <v>0.6733048709582903</v>
+        <v>0.67330487095829028</v>
       </c>
       <c r="V46">
-        <v>0.6056357471380807</v>
+        <v>0.60563574713808066</v>
       </c>
       <c r="W46">
-        <v>0.8367066861524535</v>
+        <v>0.83670668615245347</v>
       </c>
       <c r="X46">
-        <v>0.4825903356696699</v>
+        <v>0.48259033566966991</v>
       </c>
       <c r="Y46">
-        <v>0.5964643102394973</v>
+        <v>0.59646431023949731</v>
       </c>
       <c r="Z46">
         <v>0.8</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>43511</v>
       </c>
       <c r="V47">
-        <v>0.6057317098380395</v>
+        <v>0.60573170983803948</v>
       </c>
       <c r="W47">
-        <v>0.5542329236227488</v>
+        <v>0.55423292362274879</v>
       </c>
       <c r="X47">
-        <v>0.6523204076899418</v>
+        <v>0.65232040768994182</v>
       </c>
       <c r="Y47">
-        <v>0.6645473978097272</v>
+        <v>0.66454739780972716</v>
       </c>
       <c r="Z47">
         <v>0.7</v>
       </c>
       <c r="AA47">
-        <v>0.8101615090027252</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28">
+        <v>0.81016150900272521</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>43600</v>
       </c>
       <c r="V48">
-        <v>0.5881173499186332</v>
+        <v>0.58811734991863318</v>
       </c>
       <c r="W48">
-        <v>0.5636629582036647</v>
+        <v>0.56366295820366474</v>
       </c>
       <c r="X48">
         <v>0.6530272688590486</v>
       </c>
       <c r="Y48">
-        <v>0.665769779831237</v>
+        <v>0.66576977983123697</v>
       </c>
       <c r="Z48">
         <v>0.7</v>
       </c>
       <c r="AA48">
-        <v>0.7073931888332226</v>
+        <v>0.70739318883322255</v>
       </c>
       <c r="AB48">
         <v>0.7</v>
       </c>
     </row>
-    <row r="49" spans="1:44">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>43692</v>
       </c>
       <c r="V49">
-        <v>0.5639948157054135</v>
+        <v>0.56399481570541354</v>
       </c>
       <c r="W49">
-        <v>0.5943457971663975</v>
+        <v>0.59434579716639746</v>
       </c>
       <c r="X49">
-        <v>0.6532727756092953</v>
+        <v>0.65327277560929531</v>
       </c>
       <c r="Y49">
         <v>0.6660388891269946</v>
@@ -1270,85 +1289,85 @@
         <v>0.7</v>
       </c>
       <c r="AA49">
-        <v>0.6805888739909136</v>
+        <v>0.68058887399091361</v>
       </c>
       <c r="AB49">
         <v>0.6</v>
       </c>
       <c r="AC49">
-        <v>0.8264499850772893</v>
-      </c>
-    </row>
-    <row r="50" spans="1:44">
+        <v>0.82644998507728928</v>
+      </c>
+    </row>
+    <row r="50" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>43784</v>
       </c>
       <c r="V50">
-        <v>0.5645221577616581</v>
+        <v>0.56452215776165815</v>
       </c>
       <c r="W50">
-        <v>0.5949746708176207</v>
+        <v>0.59497467081762068</v>
       </c>
       <c r="X50">
-        <v>0.6535179153677859</v>
+        <v>0.65351791536778592</v>
       </c>
       <c r="Y50">
-        <v>0.6663075925577857</v>
+        <v>0.66630759255778571</v>
       </c>
       <c r="Z50">
         <v>0.7</v>
       </c>
       <c r="AA50">
-        <v>0.6674921729264724</v>
+        <v>0.66749217292647245</v>
       </c>
       <c r="AB50">
         <v>0.6</v>
       </c>
       <c r="AC50">
-        <v>0.6069572932079836</v>
+        <v>0.60695729320798364</v>
       </c>
       <c r="AD50">
-        <v>0.2694717384078302</v>
-      </c>
-    </row>
-    <row r="51" spans="1:44">
+        <v>0.26947173840783017</v>
+      </c>
+    </row>
+    <row r="51" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>43876</v>
       </c>
       <c r="Y51">
-        <v>0.5923719208076079</v>
+        <v>0.59237192080760792</v>
       </c>
       <c r="Z51">
         <v>0.5</v>
       </c>
       <c r="AA51">
-        <v>0.4786476743451828</v>
+        <v>0.47864767434518279</v>
       </c>
       <c r="AB51">
         <v>0.5</v>
       </c>
       <c r="AC51">
-        <v>0.4615803504301965</v>
+        <v>0.46158035043019652</v>
       </c>
       <c r="AD51">
-        <v>0.4790197750679681</v>
+        <v>0.47901977506796811</v>
       </c>
       <c r="AE51">
-        <v>0.9709779412929294</v>
-      </c>
-    </row>
-    <row r="52" spans="1:44">
+        <v>0.97097794129292936</v>
+      </c>
+    </row>
+    <row r="52" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>43966</v>
       </c>
       <c r="Y52">
-        <v>0.5921635512616348</v>
+        <v>0.59216355126163478</v>
       </c>
       <c r="Z52">
         <v>0.5</v>
       </c>
       <c r="AA52">
-        <v>0.4795892681231635</v>
+        <v>0.47958926812316349</v>
       </c>
       <c r="AB52">
         <v>0.5</v>
@@ -1357,83 +1376,83 @@
         <v>0.4620255922981471</v>
       </c>
       <c r="AD52">
-        <v>0.4777114241629761</v>
+        <v>0.47771142416297607</v>
       </c>
       <c r="AE52">
-        <v>-0.3951067386682467</v>
+        <v>-0.39510673866824669</v>
       </c>
       <c r="AF52">
         <v>-6</v>
       </c>
     </row>
-    <row r="53" spans="1:44">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>44058</v>
       </c>
       <c r="Y53">
-        <v>0.5925698485446134</v>
+        <v>0.59256984854461336</v>
       </c>
       <c r="Z53">
         <v>0.5</v>
       </c>
       <c r="AA53">
-        <v>0.480000094830217</v>
+        <v>0.48000009483021699</v>
       </c>
       <c r="AB53">
         <v>0.5</v>
       </c>
       <c r="AC53">
-        <v>0.462341283985694</v>
+        <v>0.46234128398569402</v>
       </c>
       <c r="AD53">
-        <v>0.4165535904695332</v>
+        <v>0.41655359046953322</v>
       </c>
       <c r="AE53">
-        <v>0.3457232704569719</v>
+        <v>0.34572327045697188</v>
       </c>
       <c r="AF53">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG53">
-        <v>-0.3941836453765433</v>
-      </c>
-    </row>
-    <row r="54" spans="1:44">
+        <v>-0.39418364537654332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>44150</v>
       </c>
       <c r="Y54">
-        <v>0.5929756788467131</v>
+        <v>0.59297567884671309</v>
       </c>
       <c r="Z54">
         <v>0.5</v>
       </c>
       <c r="AA54">
-        <v>0.4804101345901017</v>
+        <v>0.48041013459010168</v>
       </c>
       <c r="AB54">
         <v>0.5</v>
       </c>
       <c r="AC54">
-        <v>0.4626566331304929</v>
+        <v>0.46265663313049288</v>
       </c>
       <c r="AD54">
-        <v>0.4166659776295916</v>
+        <v>0.41666597762959162</v>
       </c>
       <c r="AE54">
-        <v>0.4236903864317014</v>
+        <v>0.42369038643170143</v>
       </c>
       <c r="AF54">
         <v>0.9</v>
       </c>
       <c r="AG54">
-        <v>0.8165015886790314</v>
+        <v>0.81650158867903144</v>
       </c>
       <c r="AH54">
-        <v>0.8801590087334432</v>
-      </c>
-    </row>
-    <row r="55" spans="1:44">
+        <v>0.88015900873344322</v>
+      </c>
+    </row>
+    <row r="55" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>44242</v>
       </c>
@@ -1441,10 +1460,10 @@
         <v>0.3208668783516373</v>
       </c>
       <c r="AD55">
-        <v>0.4029365108769696</v>
+        <v>0.40293651087696958</v>
       </c>
       <c r="AE55">
-        <v>0.4039905327815489</v>
+        <v>0.40399053278154889</v>
       </c>
       <c r="AF55">
         <v>0.9</v>
@@ -1453,126 +1472,126 @@
         <v>0.8755752926232816</v>
       </c>
       <c r="AH55">
-        <v>1.287283700333575</v>
+        <v>1.2872837003335751</v>
       </c>
       <c r="AI55">
-        <v>-3.629169871908772</v>
-      </c>
-    </row>
-    <row r="56" spans="1:44">
+        <v>-3.6291698719087719</v>
+      </c>
+    </row>
+    <row r="56" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>44331</v>
       </c>
       <c r="AC56">
-        <v>0.3210953086939554</v>
+        <v>0.32109530869395542</v>
       </c>
       <c r="AD56">
-        <v>0.4032615476277357</v>
+        <v>0.40326154762773569</v>
       </c>
       <c r="AE56">
-        <v>0.4042593199474709</v>
+        <v>0.40425931994747089</v>
       </c>
       <c r="AF56">
         <v>0.8</v>
       </c>
       <c r="AG56">
-        <v>0.8475926713922775</v>
+        <v>0.84759267139227745</v>
       </c>
       <c r="AH56">
-        <v>1.127486320425248</v>
+        <v>1.1274863204252481</v>
       </c>
       <c r="AI56">
-        <v>2.506963683269746</v>
+        <v>2.5069636832697459</v>
       </c>
       <c r="AJ56">
-        <v>0.6879412097722906</v>
-      </c>
-    </row>
-    <row r="57" spans="1:44">
+        <v>0.68794120977229056</v>
+      </c>
+    </row>
+    <row r="57" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>44423</v>
       </c>
       <c r="AC57">
-        <v>0.3212121583454461</v>
+        <v>0.32121215834544609</v>
       </c>
       <c r="AD57">
-        <v>0.4034294437505537</v>
+        <v>0.40342944375055367</v>
       </c>
       <c r="AE57">
-        <v>0.4044264880465676</v>
+        <v>0.40442648804656761</v>
       </c>
       <c r="AF57">
         <v>0.5</v>
       </c>
       <c r="AG57">
-        <v>0.539582574762477</v>
+        <v>0.53958257476247695</v>
       </c>
       <c r="AH57">
         <v>0.9028690035243585</v>
       </c>
       <c r="AI57">
-        <v>2.231468053493131</v>
+        <v>2.2314680534931308</v>
       </c>
       <c r="AJ57">
-        <v>1.579223146301857</v>
+        <v>1.5792231463018569</v>
       </c>
       <c r="AK57">
         <v>1.095591413702294</v>
       </c>
     </row>
-    <row r="58" spans="1:44">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>44515</v>
       </c>
       <c r="AC58">
-        <v>0.3213289040714358</v>
+        <v>0.32132890407143577</v>
       </c>
       <c r="AD58">
-        <v>0.4035971760071533</v>
+        <v>0.40359717600715328</v>
       </c>
       <c r="AE58">
-        <v>0.4045934898284145</v>
+        <v>0.40459348982841448</v>
       </c>
       <c r="AF58">
         <v>0.5</v>
       </c>
       <c r="AG58">
-        <v>0.539915376415621</v>
+        <v>0.53991537641562104</v>
       </c>
       <c r="AH58">
-        <v>0.8906322536080751</v>
+        <v>0.89063225360807508</v>
       </c>
       <c r="AI58">
-        <v>1.733421009048215</v>
+        <v>1.7334210090482149</v>
       </c>
       <c r="AJ58">
-        <v>1.211006167420919</v>
+        <v>1.2110061674209189</v>
       </c>
       <c r="AK58">
-        <v>1.491698589553721</v>
+        <v>1.4916985895537209</v>
       </c>
       <c r="AL58">
-        <v>0.3375818094670819</v>
-      </c>
-    </row>
-    <row r="59" spans="1:44">
+        <v>0.33758180946708188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>44607</v>
       </c>
       <c r="AG59">
-        <v>0.565387649938387</v>
+        <v>0.56538764993838697</v>
       </c>
       <c r="AH59">
-        <v>0.4771510906565766</v>
+        <v>0.47715109065657663</v>
       </c>
       <c r="AI59">
-        <v>0.7762107489414518</v>
+        <v>0.77621074894145181</v>
       </c>
       <c r="AJ59">
-        <v>0.6381609110613624</v>
+        <v>0.63816091106136241</v>
       </c>
       <c r="AK59">
-        <v>1.001444249407427</v>
+        <v>1.0014442494074269</v>
       </c>
       <c r="AL59">
         <v>1.899999999999991</v>
@@ -1581,24 +1600,24 @@
         <v>2.107773878883052</v>
       </c>
     </row>
-    <row r="60" spans="1:44">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>44696</v>
       </c>
       <c r="AG60">
-        <v>0.5659040305895076</v>
+        <v>0.56590403058950756</v>
       </c>
       <c r="AH60">
-        <v>0.4713567898164399</v>
+        <v>0.47135678981643991</v>
       </c>
       <c r="AI60">
-        <v>0.5849967883139158</v>
+        <v>0.58499678831391577</v>
       </c>
       <c r="AJ60">
-        <v>0.5349096264491777</v>
+        <v>0.53490962644917772</v>
       </c>
       <c r="AK60">
-        <v>0.669105553256415</v>
+        <v>0.66910555325641496</v>
       </c>
       <c r="AL60">
         <v>1.499999999999986</v>
@@ -1607,225 +1626,225 @@
         <v>1.825927060424235</v>
       </c>
       <c r="AN60">
-        <v>-1.59627740363824</v>
-      </c>
-    </row>
-    <row r="61" spans="1:44">
+        <v>-1.5962774036382399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>44788</v>
       </c>
       <c r="AG61">
-        <v>0.5661083054555434</v>
+        <v>0.56610830545554336</v>
       </c>
       <c r="AH61">
-        <v>0.4101110354300204</v>
+        <v>0.41011103543002042</v>
       </c>
       <c r="AI61">
-        <v>0.3578838054035742</v>
+        <v>0.35788380540357417</v>
       </c>
       <c r="AJ61">
-        <v>0.3558201804967069</v>
+        <v>0.35582018049670688</v>
       </c>
       <c r="AK61">
-        <v>0.5924550313764883</v>
+        <v>0.59245503137648825</v>
       </c>
       <c r="AL61">
-        <v>1.261968047254513</v>
+        <v>1.2619680472545129</v>
       </c>
       <c r="AM61">
         <v>1.247078917892267</v>
       </c>
       <c r="AN61">
-        <v>0.6360212899097775</v>
+        <v>0.63602128990977747</v>
       </c>
       <c r="AO61">
-        <v>-0.2429958482083094</v>
-      </c>
-    </row>
-    <row r="62" spans="1:44">
+        <v>-0.24299584820830941</v>
+      </c>
+    </row>
+    <row r="62" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>44880</v>
       </c>
       <c r="AG62">
-        <v>0.5663128372205222</v>
+        <v>0.56631283722052217</v>
       </c>
       <c r="AH62">
-        <v>0.410248217867462</v>
+        <v>0.41024821786746202</v>
       </c>
       <c r="AI62">
-        <v>0.3582381007614259</v>
+        <v>0.35823810076142593</v>
       </c>
       <c r="AJ62">
-        <v>0.3561732032164429</v>
+        <v>0.35617320321644291</v>
       </c>
       <c r="AK62">
-        <v>0.5931001582837325</v>
+        <v>0.59310015828373253</v>
       </c>
       <c r="AL62">
-        <v>0.8836336109360161</v>
+        <v>0.88363361093601611</v>
       </c>
       <c r="AM62">
         <v>1.017541745538338</v>
       </c>
       <c r="AN62">
-        <v>1.596777950971301</v>
+        <v>1.5967779509713009</v>
       </c>
       <c r="AO62">
-        <v>-0.7601644496390776</v>
+        <v>-0.76016444963907759</v>
       </c>
       <c r="AP62">
-        <v>-0.5009691804783216</v>
-      </c>
-    </row>
-    <row r="63" spans="1:44">
+        <v>-0.50096918047832162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>44972</v>
       </c>
       <c r="AK63">
-        <v>0.4227717190683649</v>
+        <v>0.42277171906836492</v>
       </c>
       <c r="AL63">
-        <v>0.4177330986773171</v>
+        <v>0.41773309867731712</v>
       </c>
       <c r="AM63">
-        <v>0.8674685025136029</v>
+        <v>0.86746850251360286</v>
       </c>
       <c r="AN63">
         <v>0.4220709734250363</v>
       </c>
       <c r="AO63">
-        <v>-0.5619418543831358</v>
+        <v>-0.56194185438313582</v>
       </c>
       <c r="AP63">
-        <v>-1.002803812062481</v>
+        <v>-1.0028038120624809</v>
       </c>
       <c r="AQ63">
-        <v>0.6399165487990643</v>
-      </c>
-    </row>
-    <row r="64" spans="1:44">
+        <v>0.63991654879906434</v>
+      </c>
+    </row>
+    <row r="64" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>45061</v>
       </c>
       <c r="AK64">
-        <v>0.4227483540697676</v>
+        <v>0.42274835406976757</v>
       </c>
       <c r="AL64">
-        <v>0.4265924408188653</v>
+        <v>0.42659244081886533</v>
       </c>
       <c r="AM64">
-        <v>0.5611739041530228</v>
+        <v>0.56117390415302282</v>
       </c>
       <c r="AN64">
-        <v>0.300976128603665</v>
+        <v>0.30097612860366502</v>
       </c>
       <c r="AO64">
-        <v>0.3206171571458185</v>
+        <v>0.32061715714581851</v>
       </c>
       <c r="AP64">
         <v>-0.2473557684777461</v>
       </c>
       <c r="AQ64">
-        <v>-0.5707727015197008</v>
+        <v>-0.57077270151970083</v>
       </c>
       <c r="AR64">
-        <v>-1.082392568246973</v>
-      </c>
-    </row>
-    <row r="65" spans="1:53">
+        <v>-1.0823925682469731</v>
+      </c>
+    </row>
+    <row r="65" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>45153</v>
       </c>
       <c r="AK65">
-        <v>0.379900233589936</v>
+        <v>0.37990023358993602</v>
       </c>
       <c r="AL65">
-        <v>0.3813613064184835</v>
+        <v>0.38136130641848348</v>
       </c>
       <c r="AM65">
-        <v>0.5609204932029712</v>
+        <v>0.56092049320297122</v>
       </c>
       <c r="AN65">
-        <v>0.2133322007338307</v>
+        <v>0.21333220073383069</v>
       </c>
       <c r="AO65">
         <v>0.5037909770959601</v>
       </c>
       <c r="AP65">
-        <v>0.2557045158832096</v>
+        <v>0.25570451588320958</v>
       </c>
       <c r="AQ65">
-        <v>0.3443383209621658</v>
+        <v>0.34433832096216582</v>
       </c>
       <c r="AR65">
-        <v>-1.482980287195304</v>
+        <v>-1.4829802871953039</v>
       </c>
       <c r="AS65">
         <v>-1.253192088351895</v>
       </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>45245</v>
       </c>
       <c r="AK66">
-        <v>0.3812601305627368</v>
+        <v>0.38126013056273678</v>
       </c>
       <c r="AL66">
-        <v>0.3829505529506321</v>
+        <v>0.38295055295063207</v>
       </c>
       <c r="AM66">
-        <v>0.5361813870538015</v>
+        <v>0.53618138705380147</v>
       </c>
       <c r="AN66">
         <v>0.2141789606539248</v>
       </c>
       <c r="AO66">
-        <v>0.5802378555585364</v>
+        <v>0.58023785555853635</v>
       </c>
       <c r="AP66">
-        <v>0.5953630819808922</v>
+        <v>0.59536308198089216</v>
       </c>
       <c r="AQ66">
-        <v>0.7349233804709883</v>
+        <v>0.73492338047098826</v>
       </c>
       <c r="AR66">
-        <v>-1.158099220658045</v>
+        <v>-1.1580992206580449</v>
       </c>
       <c r="AS66">
         <v>-0.8967749722241507</v>
       </c>
       <c r="AT66">
-        <v>-1.225249013415265</v>
-      </c>
-    </row>
-    <row r="67" spans="1:53">
+        <v>-1.2252490134152649</v>
+      </c>
+    </row>
+    <row r="67" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>45337</v>
       </c>
       <c r="AO67">
-        <v>1.033334771491255</v>
+        <v>1.0333347714912551</v>
       </c>
       <c r="AP67">
-        <v>0.7746376111746258</v>
+        <v>0.77463761117462582</v>
       </c>
       <c r="AQ67">
-        <v>0.8788449032025341</v>
+        <v>0.87884490320253406</v>
       </c>
       <c r="AR67">
-        <v>-0.752998921680927</v>
+        <v>-0.75299892168092697</v>
       </c>
       <c r="AS67">
-        <v>-0.523195549241052</v>
+        <v>-0.52319554924105205</v>
       </c>
       <c r="AT67">
-        <v>-0.8182812689731662</v>
+        <v>-0.81828126897316622</v>
       </c>
       <c r="AU67">
-        <v>-0.1672491925858992</v>
-      </c>
-    </row>
-    <row r="68" spans="1:53">
+        <v>-0.16724919258589921</v>
+      </c>
+    </row>
+    <row r="68" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>45427</v>
       </c>
@@ -1833,28 +1852,28 @@
         <v>0.9051321049412735</v>
       </c>
       <c r="AP68">
-        <v>0.793778326795632</v>
+        <v>0.79377832679563198</v>
       </c>
       <c r="AQ68">
         <v>1.130542372941818</v>
       </c>
       <c r="AR68">
-        <v>-0.4704156966995328</v>
+        <v>-0.47041569669953281</v>
       </c>
       <c r="AS68">
-        <v>-0.2678013321647512</v>
+        <v>-0.26780133216475122</v>
       </c>
       <c r="AT68">
         <v>-0.150009074060236</v>
       </c>
       <c r="AU68">
-        <v>-0.5107106420686733</v>
+        <v>-0.51071064206867334</v>
       </c>
       <c r="AV68">
-        <v>-1.315428906515805</v>
-      </c>
-    </row>
-    <row r="69" spans="1:53">
+        <v>-1.3154289065158049</v>
+      </c>
+    </row>
+    <row r="69" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>45519</v>
       </c>
@@ -1862,51 +1881,51 @@
         <v>0.7816402422690345</v>
       </c>
       <c r="AP69">
-        <v>0.9162431236541266</v>
+        <v>0.91624312365412663</v>
       </c>
       <c r="AQ69">
-        <v>0.8500686806944628</v>
+        <v>0.85006868069446284</v>
       </c>
       <c r="AR69">
-        <v>-0.1624766345027382</v>
+        <v>-0.16247663450273819</v>
       </c>
       <c r="AS69">
-        <v>-0.1703934273738952</v>
+        <v>-0.17039342737389521</v>
       </c>
       <c r="AT69">
-        <v>0.05197380972099097</v>
+        <v>5.1973809720990971E-2</v>
       </c>
       <c r="AU69">
-        <v>-0.09538861511217078</v>
+        <v>-9.5388615112170783E-2</v>
       </c>
       <c r="AV69">
-        <v>-0.4166873101315929</v>
+        <v>-0.41668731013159288</v>
       </c>
       <c r="AW69">
         <v>-0.6454450625183199</v>
       </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>45611</v>
       </c>
       <c r="AO70">
-        <v>0.7822113523727126</v>
+        <v>0.78221135237271255</v>
       </c>
       <c r="AP70">
-        <v>0.7342478430740584</v>
+        <v>0.73424784307405844</v>
       </c>
       <c r="AQ70">
-        <v>0.5629136562862271</v>
+        <v>0.56291365628622714</v>
       </c>
       <c r="AR70">
-        <v>-0.06075391664805352</v>
+        <v>-6.0753916648053519E-2</v>
       </c>
       <c r="AS70">
         <v>0.1219425411587309</v>
       </c>
       <c r="AT70">
-        <v>0.2644904915490685</v>
+        <v>0.26449049154906851</v>
       </c>
       <c r="AU70">
         <v>0.3472614192722574</v>
@@ -1915,13 +1934,13 @@
         <v>0.1046135451433656</v>
       </c>
       <c r="AW70">
-        <v>-0.1879686594642891</v>
+        <v>-0.18796865946428909</v>
       </c>
       <c r="AX70">
-        <v>-0.3642442736871487</v>
-      </c>
-    </row>
-    <row r="71" spans="1:53">
+        <v>-0.36424427368714868</v>
+      </c>
+    </row>
+    <row r="71" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>45703</v>
       </c>
@@ -1929,86 +1948,86 @@
         <v>0.1991269897618366</v>
       </c>
       <c r="AT71">
-        <v>0.2537613818659423</v>
+        <v>0.25376138186594233</v>
       </c>
       <c r="AU71">
-        <v>0.4237387571593985</v>
+        <v>0.42373875715939852</v>
       </c>
       <c r="AV71">
-        <v>0.3050294404940246</v>
+        <v>0.30502944049402458</v>
       </c>
       <c r="AW71">
-        <v>0.1037056639830354</v>
+        <v>0.10370566398303541</v>
       </c>
       <c r="AX71">
-        <v>-0.06445993201673161</v>
+        <v>-6.4459932016731614E-2</v>
       </c>
       <c r="AY71">
         <v>-0.2250721972476839</v>
       </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>45792</v>
       </c>
       <c r="AS72">
-        <v>0.2623745466969467</v>
+        <v>0.26237454669694671</v>
       </c>
       <c r="AT72">
-        <v>0.2685425938263108</v>
+        <v>0.26854259382631079</v>
       </c>
       <c r="AU72">
-        <v>0.52023475871259</v>
+        <v>0.52023475871258995</v>
       </c>
       <c r="AV72">
         <v>0.4463055845439925</v>
       </c>
       <c r="AW72">
-        <v>0.2307757618606985</v>
+        <v>0.23077576186069851</v>
       </c>
       <c r="AX72">
-        <v>0.09974804946696736</v>
+        <v>9.9748049466967359E-2</v>
       </c>
       <c r="AY72">
-        <v>0.04307960860288063</v>
+        <v>4.3079608602880633E-2</v>
       </c>
       <c r="AZ72">
-        <v>-0.00499463464311134</v>
-      </c>
-    </row>
-    <row r="73" spans="1:53">
+        <v>-4.9946346431113398E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>45884</v>
       </c>
       <c r="AS73">
-        <v>0.3428813742886376</v>
+        <v>0.34288137428863757</v>
       </c>
       <c r="AT73">
-        <v>0.3174104629930952</v>
+        <v>0.31741046299309522</v>
       </c>
       <c r="AU73">
-        <v>0.5438394591833884</v>
+        <v>0.54383945918338839</v>
       </c>
       <c r="AV73">
-        <v>0.5061112152548333</v>
+        <v>0.50611121525483327</v>
       </c>
       <c r="AW73">
-        <v>0.2369121668483558</v>
+        <v>0.23691216684835581</v>
       </c>
       <c r="AX73">
-        <v>0.1397045265759402</v>
+        <v>0.13970452657594021</v>
       </c>
       <c r="AY73">
-        <v>0.1377206874530827</v>
+        <v>0.13772068745308269</v>
       </c>
       <c r="AZ73">
-        <v>0.1675816296148298</v>
+        <v>0.16758162961482981</v>
       </c>
       <c r="BA73">
         <v>-0.1440085263791531</v>
       </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>45976</v>
       </c>
@@ -2019,13 +2038,13 @@
         <v>0.317419114862318</v>
       </c>
       <c r="AU74">
-        <v>0.5430710560096372</v>
+        <v>0.54307105600963723</v>
       </c>
       <c r="AV74">
-        <v>0.5393070525298924</v>
+        <v>0.53930705252989242</v>
       </c>
       <c r="AW74">
-        <v>0.2822095631932768</v>
+        <v>0.28220956319327678</v>
       </c>
       <c r="AX74">
         <v>0.1244908591137204</v>
@@ -2034,41 +2053,41 @@
         <v>0.1214863317924539</v>
       </c>
       <c r="AZ74">
-        <v>0.3385303686095114</v>
+        <v>0.33853036860951141</v>
       </c>
       <c r="BA74">
         <v>0.2249699068135271</v>
       </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>46068</v>
       </c>
       <c r="AW75">
-        <v>0.2817932142556572</v>
+        <v>0.28179321425565718</v>
       </c>
       <c r="AX75">
         <v>0.1648504995217053</v>
       </c>
       <c r="AY75">
-        <v>0.1622789752361058</v>
+        <v>0.16227897523610579</v>
       </c>
       <c r="AZ75">
-        <v>0.4663936762732419</v>
+        <v>0.46639367627324191</v>
       </c>
       <c r="BA75">
-        <v>0.4000000000000057</v>
-      </c>
-    </row>
-    <row r="76" spans="1:53">
+        <v>0.40000000000000568</v>
+      </c>
+    </row>
+    <row r="76" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>46157</v>
       </c>
       <c r="AW76">
-        <v>0.3121257356490901</v>
+        <v>0.31212573564909007</v>
       </c>
       <c r="AX76">
-        <v>0.1657070316513085</v>
+        <v>0.16570703165130851</v>
       </c>
       <c r="AY76">
         <v>0.1631387932247321</v>
@@ -2077,79 +2096,79 @@
         <v>0.536958667948781</v>
       </c>
       <c r="BA76">
-        <v>0.4511483319588336</v>
-      </c>
-    </row>
-    <row r="77" spans="1:53">
+        <v>0.45114833195883358</v>
+      </c>
+    </row>
+    <row r="77" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>46249</v>
       </c>
       <c r="AW77">
-        <v>0.3332836563751727</v>
+        <v>0.33328365637517271</v>
       </c>
       <c r="AX77">
-        <v>0.1971093100426629</v>
+        <v>0.19710931004266291</v>
       </c>
       <c r="AY77">
-        <v>0.218424449518011</v>
+        <v>0.21842444951801099</v>
       </c>
       <c r="AZ77">
-        <v>0.6984697933821735</v>
+        <v>0.69846979338217352</v>
       </c>
       <c r="BA77">
         <v>0.5750237167950587</v>
       </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>46341</v>
       </c>
       <c r="AW78">
-        <v>0.3337454255914167</v>
+        <v>0.33374542559141668</v>
       </c>
       <c r="AX78">
-        <v>0.259359523387289</v>
+        <v>0.25935952338728901</v>
       </c>
       <c r="AY78">
-        <v>0.2800655158905698</v>
+        <v>0.28006551589056983</v>
       </c>
       <c r="AZ78">
-        <v>0.729694202344902</v>
+        <v>0.72969420234490201</v>
       </c>
       <c r="BA78">
         <v>0.6226534528507699</v>
       </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>46433</v>
       </c>
       <c r="BA79">
-        <v>0.605709523522961</v>
-      </c>
-    </row>
-    <row r="80" spans="1:53">
+        <v>0.60570952352296104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>46522</v>
       </c>
       <c r="BA80">
-        <v>0.6297219506583787</v>
-      </c>
-    </row>
-    <row r="81" spans="1:53">
+        <v>0.62972195065837866</v>
+      </c>
+    </row>
+    <row r="81" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>46614</v>
       </c>
       <c r="BA81">
-        <v>0.688907477092755</v>
-      </c>
-    </row>
-    <row r="82" spans="1:53">
+        <v>0.68890747709275502</v>
+      </c>
+    </row>
+    <row r="82" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>46706</v>
       </c>
       <c r="BA82">
-        <v>0.6890597288883242</v>
+        <v>0.68905972888832423</v>
       </c>
     </row>
   </sheetData>
